--- a/rmonize/data_proc_elem/DPE_EPICP_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_EPICP_P1.xlsx
@@ -647,7 +647,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>PAL</t>
+          <t>pal</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -850,6 +850,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>POTATOES_TUB_01</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -895,6 +900,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>POTATOES_0101</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -940,6 +950,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
           <t>impossible</t>
@@ -990,6 +1005,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>VEGETABLES_02</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -1035,6 +1055,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>LEAFYVEG_0201</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -1080,6 +1105,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>FRUITINGVEG_0202</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -1125,6 +1155,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>ROOTVEG_0203</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -1170,6 +1205,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>CABBAGE_0204</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -1215,6 +1255,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>MUSHROOMS_0205</t>
+        </is>
+      </c>
       <c r="G18" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -1260,6 +1305,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>GRAINPODVEG_0206</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -1305,6 +1355,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>ONION_GARLIC_0207</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -1350,6 +1405,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>STALKVEG_0208</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -1395,6 +1455,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>MIXEDVEG_0209</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -1440,6 +1505,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>LEGUMES_TOT_03</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -1485,6 +1555,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>LEGUMES_0301</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -1530,6 +1605,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>FRUITS_TOT_04</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -1575,6 +1655,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>FRUITS_0401</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -1620,6 +1705,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NUTS_SEEDS_0402</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -1665,6 +1755,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>MIXEDFRUITS_0403</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -1710,6 +1805,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr">
         <is>
           <t>impossible</t>
@@ -1760,6 +1860,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>DAIRY_05</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -1805,6 +1910,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>MILK_0501</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -1850,6 +1960,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>MILKBEV_0502</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -1895,6 +2010,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>YOGURT_0503</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -1940,6 +2060,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>CURD_0504</t>
+        </is>
+      </c>
       <c r="G34" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -1985,6 +2110,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>CHEESE_0505</t>
+        </is>
+      </c>
       <c r="G35" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -2030,6 +2160,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>DAIRYDESSERT_0506</t>
+        </is>
+      </c>
       <c r="G36" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -2075,6 +2210,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>CREAM_PROD_0507</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -2120,6 +2260,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>DAIRYCREAM_050701</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -2165,6 +2310,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr">
         <is>
           <t>impossible</t>
@@ -2215,6 +2365,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>MILK_FOR_COFFEE_0508</t>
+        </is>
+      </c>
       <c r="G40" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -2260,6 +2415,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>CEREAL_PROD_06</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -2305,6 +2465,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>FLOUR_FLAKES_0601</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -2350,6 +2515,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>PASTA_RICE_0602</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -2395,6 +2565,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>BREAD_PROD_0603</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -2440,6 +2615,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>BREAD_060301</t>
+        </is>
+      </c>
       <c r="G45" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -2485,6 +2665,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>CRISPBREAD_060302</t>
+        </is>
+      </c>
       <c r="G46" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -2530,6 +2715,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>BREAKF_CEREALS_0604</t>
+        </is>
+      </c>
       <c r="G47" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -2575,6 +2765,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>SALT_BISCUIT_0605</t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -2620,6 +2815,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>DOUGH_PASTRY_0606</t>
+        </is>
+      </c>
       <c r="G49" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -2665,6 +2865,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>MEAT_PROD_07</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -2710,6 +2915,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>RED_MEAT_0701</t>
+        </is>
+      </c>
       <c r="G51" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -2755,6 +2965,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>BEEF_070101</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -2800,6 +3015,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>VEAL_070102</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -2845,6 +3065,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>PORK_070103</t>
+        </is>
+      </c>
       <c r="G54" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -2890,6 +3115,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>MUTTON_LAMB_070104</t>
+        </is>
+      </c>
       <c r="G55" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -2935,6 +3165,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
       <c r="G56" t="inlineStr">
         <is>
           <t>impossible</t>
@@ -2985,6 +3220,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
       <c r="G57" t="inlineStr">
         <is>
           <t>impossible</t>
@@ -3035,6 +3275,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>POULTRY_0702</t>
+        </is>
+      </c>
       <c r="G58" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -3080,6 +3325,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>OTHERPOULTRY_070200</t>
+        </is>
+      </c>
       <c r="G59" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -3125,6 +3375,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>CHICKEN_070201</t>
+        </is>
+      </c>
       <c r="G60" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -3170,6 +3425,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr">
         <is>
           <t>impossible</t>
@@ -3220,6 +3480,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
       <c r="G62" t="inlineStr">
         <is>
           <t>impossible</t>
@@ -3270,6 +3535,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
       <c r="G63" t="inlineStr">
         <is>
           <t>impossible</t>
@@ -3320,6 +3590,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>RABBIT_070205</t>
+        </is>
+      </c>
       <c r="G64" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -3365,6 +3640,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
       <c r="G65" t="inlineStr">
         <is>
           <t>impossible</t>
@@ -3415,6 +3695,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>PROCMEAT_0704</t>
+        </is>
+      </c>
       <c r="G66" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -3460,6 +3745,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>OFFALS_0705</t>
+        </is>
+      </c>
       <c r="G67" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -3505,6 +3795,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>FISH_SHELLFISH_08</t>
+        </is>
+      </c>
       <c r="G68" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -3550,6 +3845,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>FISH_0801</t>
+        </is>
+      </c>
       <c r="G69" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -3595,6 +3895,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
       <c r="G70" t="inlineStr">
         <is>
           <t>impossible</t>
@@ -3645,6 +3950,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>FISH_PROD_0803</t>
+        </is>
+      </c>
       <c r="G71" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -3690,6 +4000,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>EGG_PROD_09</t>
+        </is>
+      </c>
       <c r="G72" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -3735,6 +4050,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>EGGS_0901</t>
+        </is>
+      </c>
       <c r="G73" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -3780,6 +4100,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>FAT_10</t>
+        </is>
+      </c>
       <c r="G74" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -3825,6 +4150,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>VEGOILS_1001</t>
+        </is>
+      </c>
       <c r="G75" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -3870,6 +4200,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>BUTTER_1002</t>
+        </is>
+      </c>
       <c r="G76" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -3915,6 +4250,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>MARGARINE_1003</t>
+        </is>
+      </c>
       <c r="G77" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -3960,6 +4300,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>FRYFAT_1004</t>
+        </is>
+      </c>
       <c r="G78" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -4005,6 +4350,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
       <c r="G79" t="inlineStr">
         <is>
           <t>impossible</t>
@@ -4055,6 +4405,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>OTHER_ANIMALFAT_1006</t>
+        </is>
+      </c>
       <c r="G80" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -4100,6 +4455,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>SUGAR_CONFECT_11</t>
+        </is>
+      </c>
       <c r="G81" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -4145,6 +4505,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>HONEY_JAM_1101</t>
+        </is>
+      </c>
       <c r="G82" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -4190,6 +4555,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>CHOCOLATE_1102</t>
+        </is>
+      </c>
       <c r="G83" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -4235,6 +4605,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>NONCHOC_SWEETS_1103</t>
+        </is>
+      </c>
       <c r="G84" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -4280,6 +4655,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
       <c r="G85" t="inlineStr">
         <is>
           <t>impossible</t>
@@ -4330,6 +4710,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>ICECREAM_1105</t>
+        </is>
+      </c>
       <c r="G86" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -4375,6 +4760,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>ICECREAM_MILK_110501</t>
+        </is>
+      </c>
       <c r="G87" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -4420,6 +4810,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
       <c r="G88" t="inlineStr">
         <is>
           <t>impossible</t>
@@ -4470,6 +4865,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
       <c r="G89" t="inlineStr">
         <is>
           <t>impossible</t>
@@ -4520,6 +4920,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>CAKES_12</t>
+        </is>
+      </c>
       <c r="G90" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -4565,6 +4970,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>VARPASTRY_1201</t>
+        </is>
+      </c>
       <c r="G91" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -4610,6 +5020,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>DRYCAKE_1202</t>
+        </is>
+      </c>
       <c r="G92" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -4655,6 +5070,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>NONALC_BEV_13</t>
+        </is>
+      </c>
       <c r="G93" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -4700,6 +5120,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>FRUITVEG_JUICE_1301</t>
+        </is>
+      </c>
       <c r="G94" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -4745,6 +5170,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>SOFTDRINKS_1302</t>
+        </is>
+      </c>
       <c r="G95" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -4790,6 +5220,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>HOTDRINKS_1303</t>
+        </is>
+      </c>
       <c r="G96" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -4835,6 +5270,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>COFFEE_130301</t>
+        </is>
+      </c>
       <c r="G97" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -4880,6 +5320,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>TEA_130302</t>
+        </is>
+      </c>
       <c r="G98" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -4925,6 +5370,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>HERBALTEA_130303</t>
+        </is>
+      </c>
       <c r="G99" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -4970,6 +5420,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>COFFEE_IMITATE_130304</t>
+        </is>
+      </c>
       <c r="G100" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -5015,6 +5470,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>WATER_1304</t>
+        </is>
+      </c>
       <c r="G101" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -5060,6 +5520,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>ALC_BEV_14</t>
+        </is>
+      </c>
       <c r="G102" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -5105,6 +5570,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>WINE_1401</t>
+        </is>
+      </c>
       <c r="G103" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -5150,6 +5620,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>FORTWINE_1402</t>
+        </is>
+      </c>
       <c r="G104" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -5195,6 +5670,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>BEER_1403</t>
+        </is>
+      </c>
       <c r="G105" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -5240,6 +5720,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>SPIRITS_1404</t>
+        </is>
+      </c>
       <c r="G106" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -5285,6 +5770,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>HERBLIQUEUR_1405</t>
+        </is>
+      </c>
       <c r="G107" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -5330,6 +5820,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>LIQUEURS_1406</t>
+        </is>
+      </c>
       <c r="G108" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -5375,6 +5870,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
       <c r="G109" t="inlineStr">
         <is>
           <t>impossible</t>
@@ -5425,6 +5925,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>CONDIMENT_SAUCES_15</t>
+        </is>
+      </c>
       <c r="G110" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -5470,6 +5975,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>SAUCES_1501</t>
+        </is>
+      </c>
       <c r="G111" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -5515,6 +6025,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>TOMATOSAUCE_150101</t>
+        </is>
+      </c>
       <c r="G112" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -5560,6 +6075,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>DRESSINGS_150102</t>
+        </is>
+      </c>
       <c r="G113" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -5605,6 +6125,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>MAYONNAISE_150103</t>
+        </is>
+      </c>
       <c r="G114" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -5650,6 +6175,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
       <c r="G115" t="inlineStr">
         <is>
           <t>impossible</t>
@@ -5700,6 +6230,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
       <c r="G116" t="inlineStr">
         <is>
           <t>impossible</t>
@@ -5750,6 +6285,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>HERBS_SPICES_1503</t>
+        </is>
+      </c>
       <c r="G117" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -5795,6 +6335,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>CONDIMENTS_1504</t>
+        </is>
+      </c>
       <c r="G118" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -5840,6 +6385,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>SOUP_BOUILLON_16</t>
+        </is>
+      </c>
       <c r="G119" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -5885,6 +6435,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>SOUP_1601</t>
+        </is>
+      </c>
       <c r="G120" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -5930,6 +6485,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>BOUILLON_1602</t>
+        </is>
+      </c>
       <c r="G121" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -5975,6 +6535,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS_17</t>
+        </is>
+      </c>
       <c r="G122" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -6020,6 +6585,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>VEG_DISHES_1700</t>
+        </is>
+      </c>
       <c r="G123" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -6065,6 +6635,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>SOY_PROD_1701</t>
+        </is>
+      </c>
       <c r="G124" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -6110,6 +6685,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>DIET_PROD_1702</t>
+        </is>
+      </c>
       <c r="G125" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -6155,6 +6735,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>ART_SWEETENER_170201</t>
+        </is>
+      </c>
       <c r="G126" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -6200,6 +6785,11 @@
           <t>EPICP_P1</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
       <c r="G127" t="inlineStr">
         <is>
           <t>impossible</t>
@@ -6248,6 +6838,11 @@
       <c r="E128" t="inlineStr">
         <is>
           <t>EPICP_P1</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>impossible</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">

--- a/rmonize/data_proc_elem/DPE_EPICP_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_EPICP_P1.xlsx
@@ -595,7 +595,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>recode</t>
+          <t>case_when</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">

--- a/rmonize/data_proc_elem/DPE_EPICP_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_EPICP_P1.xlsx
@@ -807,7 +807,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>GJ*4.184</t>
+          <t>GJ/4.184</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
